--- a/data/trans_orig/iP30B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E3986B-E0AC-4DEE-8D2C-FCF3CA460FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E248C9F-5C64-4EF4-90C0-234C6C91DBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{66370C6E-C3B7-4B66-A588-3D1C1293A710}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{64CF5459-D39F-47CB-91BF-5BD0EDC9BCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>35,68%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>42,92%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>64,32%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>65,18%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -234,120 +348,6 @@
   </si>
   <si>
     <t>56,95%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
   </si>
   <si>
     <t>42,7%</t>
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D673390-49C6-404B-A500-5AAB5C059FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC340466-FA10-409E-80BB-BC937945D055}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -911,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>86665</v>
+        <v>8371</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -926,10 +926,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>79475</v>
+        <v>10668</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -941,10 +941,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>166140</v>
+        <v>19039</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -962,10 +962,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>156248</v>
+        <v>3026</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -977,10 +977,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>108442</v>
+        <v>5331</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -992,10 +992,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>264690</v>
+        <v>8356</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1013,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1028,10 +1028,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1043,10 +1043,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1221,10 +1221,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7">
-        <v>78880</v>
+        <v>86665</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1236,10 +1236,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I10" s="7">
-        <v>84238</v>
+        <v>79475</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1251,10 +1251,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N10" s="7">
-        <v>163119</v>
+        <v>166140</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1263,7 +1263,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,49 +1272,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>92576</v>
+        <v>156248</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="I11" s="7">
-        <v>84252</v>
+        <v>108442</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="N11" s="7">
-        <v>176828</v>
+        <v>264690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1338,10 +1338,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1353,10 +1353,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1370,55 +1370,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="D13" s="7">
-        <v>8371</v>
+        <v>87216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I13" s="7">
-        <v>10668</v>
+        <v>83849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="N13" s="7">
-        <v>19039</v>
+        <v>171065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,49 +1427,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7">
-        <v>3026</v>
+        <v>83903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7">
-        <v>5331</v>
+        <v>82719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="N14" s="7">
-        <v>8356</v>
+        <v>166622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,10 +1478,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1493,10 +1493,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1508,10 +1508,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1525,55 +1525,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>87216</v>
+        <v>78880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I16" s="7">
-        <v>83849</v>
+        <v>84238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
       </c>
       <c r="N16" s="7">
-        <v>171065</v>
+        <v>163119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,46 +1582,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7">
-        <v>83903</v>
+        <v>92576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I17" s="7">
-        <v>82719</v>
+        <v>84252</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="N17" s="7">
-        <v>166622</v>
+        <v>176828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>103</v>
@@ -1633,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1648,10 +1648,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1663,10 +1663,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E248C9F-5C64-4EF4-90C0-234C6C91DBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD4BD7E-B9C8-4F19-9121-E2989FB3F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{64CF5459-D39F-47CB-91BF-5BD0EDC9BCDF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C0C3DDF-E200-4C85-B8CB-7197F6FFF14E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
-  <si>
-    <t>Menores según si toman frutos sexos con regularidad (al menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+  <si>
+    <t>Menores según si toman frutos secos con regularidad (al menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,310 +128,289 @@
     <t>82,05%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
     <t>50,97%</t>
   </si>
   <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
   </si>
   <si>
     <t>50,34%</t>
   </si>
   <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
     <t>46,01%</t>
   </si>
   <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>47,98%</t>
   </si>
   <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
   </si>
   <si>
     <t>42,7%</t>
   </si>
   <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>48,07%</t>
   </si>
   <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
   </si>
   <si>
     <t>45,25%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -508,39 +517,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -592,7 +601,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -703,13 +712,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -718,6 +720,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -782,19 +791,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC340466-FA10-409E-80BB-BC937945D055}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0672011C-4F5A-408A-8C30-8392298DC148}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -911,10 +940,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>8371</v>
+        <v>3026</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -926,10 +955,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>10668</v>
+        <v>5331</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -941,10 +970,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>19039</v>
+        <v>8356</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -962,10 +991,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>3026</v>
+        <v>8371</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -977,10 +1006,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>5331</v>
+        <v>10668</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -992,10 +1021,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>8356</v>
+        <v>19039</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1066,10 +1095,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7">
-        <v>41770</v>
+        <v>70678</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1081,10 +1110,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>49688</v>
+        <v>51947</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1096,10 +1125,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="N7" s="7">
-        <v>91458</v>
+        <v>122625</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1117,10 +1146,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>70678</v>
+        <v>41770</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1132,10 +1161,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>51947</v>
+        <v>49688</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1147,10 +1176,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>122625</v>
+        <v>91458</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1221,10 +1250,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="D10" s="7">
-        <v>86665</v>
+        <v>156248</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1236,10 +1265,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="I10" s="7">
-        <v>79475</v>
+        <v>108442</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1251,10 +1280,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="N10" s="7">
-        <v>166140</v>
+        <v>264690</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1272,10 +1301,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="D11" s="7">
-        <v>156248</v>
+        <v>86665</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1287,10 +1316,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="I11" s="7">
-        <v>108442</v>
+        <v>79475</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1302,10 +1331,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="N11" s="7">
-        <v>264690</v>
+        <v>166140</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1376,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>87216</v>
+        <v>83903</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1391,10 +1420,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I13" s="7">
-        <v>83849</v>
+        <v>82719</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1406,10 +1435,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="N13" s="7">
-        <v>171065</v>
+        <v>166622</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1427,10 +1456,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7">
-        <v>83903</v>
+        <v>87216</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1442,10 +1471,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>82719</v>
+        <v>83849</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1457,10 +1486,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="N14" s="7">
-        <v>166622</v>
+        <v>171065</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1531,10 +1560,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7">
-        <v>78880</v>
+        <v>92576</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1546,10 +1575,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>84238</v>
+        <v>84252</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1561,10 +1590,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N16" s="7">
-        <v>163119</v>
+        <v>176828</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1573,7 +1602,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,49 +1611,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>92576</v>
+        <v>78880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="I17" s="7">
-        <v>84252</v>
+        <v>84238</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N17" s="7">
-        <v>176828</v>
+        <v>163119</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,49 +1715,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>421</v>
+        <v>519</v>
       </c>
       <c r="D19" s="7">
-        <v>302903</v>
+        <v>406430</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I19" s="7">
-        <v>307918</v>
+        <v>332691</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>877</v>
+        <v>978</v>
       </c>
       <c r="N19" s="7">
-        <v>610821</v>
+        <v>739121</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,49 +1766,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>519</v>
+        <v>421</v>
       </c>
       <c r="D20" s="7">
-        <v>406431</v>
+        <v>302903</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I20" s="7">
-        <v>332691</v>
+        <v>307918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>978</v>
+        <v>877</v>
       </c>
       <c r="N20" s="7">
-        <v>739121</v>
+        <v>610821</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,7 +1820,7 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1831,6 +1860,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
